--- a/DSA Problems.xlsx
+++ b/DSA Problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toish\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3812AD09-536B-44CC-B942-D16139F197A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26C1D3-D384-43F0-8847-4D6464FCD104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="126">
   <si>
     <t>S.No.</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Interesting Array</t>
   </si>
   <si>
-    <t>Bit wise XOR operation solution</t>
-  </si>
-  <si>
     <t>Min XOR value</t>
   </si>
   <si>
@@ -322,6 +319,96 @@
   <si>
     <t>At every step we need to add the open and close brackets but in valid combinations. We can keep on adding the opening brackets until left is greater than zero and right brackets can be added till right is greater than left. After adding we need to remove as well for backtracking</t>
   </si>
+  <si>
+    <t xml:space="preserve">Bit wise XOR operation solution - understand how bitwise xor helps for solution </t>
+  </si>
+  <si>
+    <t>Count Total Set Bits</t>
+  </si>
+  <si>
+    <t>Strange Equality</t>
+  </si>
+  <si>
+    <t>Divide Integers</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Sum Of Digits</t>
+  </si>
+  <si>
+    <t>Is Magic Number</t>
+  </si>
+  <si>
+    <t>Very Easy</t>
+  </si>
+  <si>
+    <t>Power Function</t>
+  </si>
+  <si>
+    <t>Edge Cases are important</t>
+  </si>
+  <si>
+    <t>Log(B) - Where B is power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant </t>
+  </si>
+  <si>
+    <t>By Math technique it is constant</t>
+  </si>
+  <si>
+    <t>O(N) - Where n are digits</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>Exponential O(2^n)</t>
+  </si>
+  <si>
+    <t>Print Reverse String</t>
+  </si>
+  <si>
+    <t>O(N) -where n is length of string</t>
+  </si>
+  <si>
+    <t>Sequence Problem</t>
+  </si>
+  <si>
+    <t>Depends on sequence calls</t>
+  </si>
+  <si>
+    <t>Tower of Hanoi</t>
+  </si>
+  <si>
+    <t>Gray Code</t>
+  </si>
+  <si>
+    <t>Kth Symbol Grammer</t>
+  </si>
+  <si>
+    <t>Important to see how recursion is called and parameters are changed</t>
+  </si>
+  <si>
+    <t>Important to see the recursion and main logic</t>
+  </si>
+  <si>
+    <t>Count Paranthese Given Number of pairs</t>
+  </si>
+  <si>
+    <t>Important to see the recursion and main logic (Classwork)</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Recusion</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +500,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -721,8 +817,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1106,8 +1202,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>466725</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1589,35 +1685,30 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>695325</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>4047</xdr:rowOff>
+          <xdr:colOff>400051</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>187850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3079" name="Object 7" hidden="1">
+            <xdr:cNvPr id="2082" name="Object 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3079"/>
+                  <a14:compatExt spid="_x0000_s2082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0AFF8C-3EEB-4367-92E8-1EA5A5A69F34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C2FDBC-20B8-4FD2-8A92-52F501359A98}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1668,24 +1759,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>183696</xdr:rowOff>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>176456</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3082" name="Object 10" hidden="1">
+            <xdr:cNvPr id="2083" name="Object 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3082"/>
+                  <a14:compatExt spid="_x0000_s2083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37E2267-0F42-48D4-977F-460D296686D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44204F63-7968-4697-8397-FF9CAFE4C1A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1723,6 +1814,597 @@
                 </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>526169</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2084" name="Object 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4D8F12-8CFC-425D-92FF-C3F26934154E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>9826</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2086" name="Object 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB1A38E-93DE-4A94-AE17-82759392034F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>559329</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2087" name="Object 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F6638F-CCB4-4DD4-BCC9-27901E023AA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>495301</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>177127</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2088" name="Object 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEF80FB-6228-411E-95C8-98C4DF493969}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>180023</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2091" name="Object 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754D3EF5-56AE-4144-8F5F-E7CFE091E89D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>182166</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2092" name="Object 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EEE127-3B77-462E-84B5-553F0E7F5C76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>7804</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2093" name="Object 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06899093-56E9-4486-9D83-0A30EBAB1DD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>695325</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3079" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000070C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3082" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A0C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2010,18 +2692,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S517"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:S3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
@@ -2120,7 +2802,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
@@ -2161,7 +2843,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
@@ -2206,7 +2888,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>26</v>
@@ -2253,7 +2935,7 @@
         <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
@@ -2292,7 +2974,7 @@
         <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2331,7 +3013,7 @@
         <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2368,7 +3050,7 @@
         <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2405,7 +3087,7 @@
         <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2444,7 +3126,7 @@
         <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2481,7 +3163,7 @@
         <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2518,7 +3200,7 @@
         <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2737,28 +3419,30 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="B22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2785,7 +3469,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2822,7 +3506,7 @@
         <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2859,7 +3543,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2896,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2927,13 +3611,13 @@
         <v>58</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2950,7 +3634,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -2958,19 +3642,19 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2987,7 +3671,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
@@ -3001,13 +3685,13 @@
         <v>58</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3024,7 +3708,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -3038,13 +3722,13 @@
         <v>58</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3061,7 +3745,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
@@ -3073,13 +3757,13 @@
         <v>58</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3096,7 +3780,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
@@ -3114,7 +3798,7 @@
         <v>53</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3130,16 +3814,22 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3155,16 +3845,22 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3180,16 +3876,22 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3201,44 +3903,56 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="B36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3253,15 +3967,29 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3276,15 +4004,29 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -3299,15 +4041,27 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -3322,15 +4076,27 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -3345,15 +4111,27 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -3368,15 +4146,27 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -3391,15 +4181,27 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -3414,15 +4216,27 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -3437,15 +4251,27 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -3456,28 +4282,30 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="B47" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -14291,9 +15119,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{9D6440E9-8E1E-43AC-B858-E4572FF2CA51}">
       <formula1>"Scaler-A,Scaler-I,Leetcode,GFG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{BF20C4B6-E8A1-4D23-A148-D05D51CB2238}">
+      <formula1>"Very Easy,Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -14319,16 +15150,28 @@
     <hyperlink ref="B30" r:id="rId20" xr:uid="{AFC51F3F-8D31-4B62-B590-21E74E809880}"/>
     <hyperlink ref="B31" r:id="rId21" xr:uid="{6690240D-39E9-47B2-8F61-91D1B5E506B3}"/>
     <hyperlink ref="B32" r:id="rId22" xr:uid="{6E855CE2-BEC4-454D-93CB-A8B11DAB13FA}"/>
+    <hyperlink ref="B33" r:id="rId23" xr:uid="{F36267B4-8DA5-49A2-A305-BF29565F2436}"/>
+    <hyperlink ref="B34" r:id="rId24" xr:uid="{7D7078DE-0FB1-454F-B1D1-DDE3CE3026FF}"/>
+    <hyperlink ref="B35" r:id="rId25" xr:uid="{34ACC260-B161-401D-9C54-171A9482FEFF}"/>
+    <hyperlink ref="B37" r:id="rId26" xr:uid="{2ACF32BC-7B1E-43B0-A847-E2CDA2D7F336}"/>
+    <hyperlink ref="B38" r:id="rId27" xr:uid="{1224592E-9897-40A9-AFBB-05483BFBBEDF}"/>
+    <hyperlink ref="B39" r:id="rId28" xr:uid="{ED3A2B20-8C29-4D65-904F-18B322A98872}"/>
+    <hyperlink ref="B40" r:id="rId29" xr:uid="{99464950-14CB-43D5-A0EE-D80FAE78C179}"/>
+    <hyperlink ref="B41" r:id="rId30" xr:uid="{BFE67DA7-C079-4D05-984F-031E7F3F5D6E}"/>
+    <hyperlink ref="B42" r:id="rId31" xr:uid="{79822366-0048-4C56-9988-3955ACA1CFC0}"/>
+    <hyperlink ref="B43" r:id="rId32" xr:uid="{7E2D3B29-AE79-46ED-A76E-237FB99B28E7}"/>
+    <hyperlink ref="B44" r:id="rId33" xr:uid="{5B849E56-CFDB-470B-8519-C3909FCE3DCD}"/>
+    <hyperlink ref="B45" r:id="rId34" xr:uid="{3294574F-F283-4F43-B97F-11504D1AFF38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-  <drawing r:id="rId24"/>
-  <legacyDrawing r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
+  <drawing r:id="rId36"/>
+  <legacyDrawing r:id="rId37"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId26">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId27">
+        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId38">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14347,13 +15190,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId26"/>
+        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId28">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId29">
+        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId40">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14372,13 +15215,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId28"/>
+        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId30">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId31">
+        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId42">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14397,13 +15240,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId30"/>
+        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId32">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId33">
+        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId44">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14422,13 +15265,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId32"/>
+        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId34">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId35">
+        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId46">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14447,13 +15290,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId34"/>
+        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId36">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId37">
+        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId48">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14472,13 +15315,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId36"/>
+        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId38">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId39">
+        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId50">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14497,13 +15340,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId38"/>
+        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId40">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId41">
+        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId52">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14522,13 +15365,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId40"/>
+        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId42">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
+        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId54">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14547,13 +15390,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId42"/>
+        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId44">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
+        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId56">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14572,13 +15415,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId44"/>
+        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId46">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
+        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14597,13 +15440,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId46"/>
+        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId48">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
+        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId60">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14622,13 +15465,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId48"/>
+        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId50">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
+        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId62">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14647,13 +15490,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId50"/>
+        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId52">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
+        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId64">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14672,13 +15515,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId52"/>
+        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId54">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
+        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId66">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14697,13 +15540,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId54"/>
+        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId56">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
+        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId68">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14722,13 +15565,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId56"/>
+        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId58">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
+        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId70">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14747,13 +15590,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId58"/>
+        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId60">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
+        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId72">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14772,13 +15615,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId60"/>
+        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId62">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
+        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId74">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14797,13 +15640,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId62"/>
+        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId64">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
+        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14822,13 +15665,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId64"/>
+        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId66">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
+        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId78">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -14847,7 +15690,232 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId66"/>
+        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId80">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId82">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId84">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId86">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId88">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId90">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId92">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId94">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId96">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId96"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -14858,7 +15926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322AA008-33AF-4A19-AF48-C340096753FF}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -14883,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -14930,29 +15998,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -14966,29 +16034,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -15002,14 +16070,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -15026,14 +16094,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -15050,14 +16118,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -15074,14 +16142,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>

--- a/DSA Problems.xlsx
+++ b/DSA Problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toish\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Scaler\scaler-oct21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26C1D3-D384-43F0-8847-4D6464FCD104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653AD94C-2735-4C95-B825-25C8625A85A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="153">
   <si>
     <t>S.No.</t>
   </si>
@@ -409,6 +409,87 @@
   <si>
     <t>Sorting</t>
   </si>
+  <si>
+    <t>Merge Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>MaxMod</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element</t>
+  </si>
+  <si>
+    <t>Array with consecutive elements</t>
+  </si>
+  <si>
+    <t>MergeSort Arrays With Sorted Sub Parts</t>
+  </si>
+  <si>
+    <t>Selection Sort (Unstable)</t>
+  </si>
+  <si>
+    <t>Selection Sort (Implemented in Stable way)</t>
+  </si>
+  <si>
+    <t>Bubble Sort (Stable)</t>
+  </si>
+  <si>
+    <t>Merge Sort (Unstable, can be implemented in stable way)</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution</t>
+  </si>
+  <si>
+    <t>O(N^2), In-place and unstable by swapping</t>
+  </si>
+  <si>
+    <t>O(N^2), In-place and stable by shifting</t>
+  </si>
+  <si>
+    <t>O(N^2), In-place and stable by swapping consecutive elements</t>
+  </si>
+  <si>
+    <t>TC - O(N+M) and SC - O(N+M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     TC - O(N) and SC - O(N)</t>
+  </si>
+  <si>
+    <t>TC - O (N log N) and SC - O (N + logN)</t>
+  </si>
+  <si>
+    <t>Important Algorithm</t>
+  </si>
+  <si>
+    <t>Array Inversion Count</t>
+  </si>
+  <si>
+    <t>Largest Number</t>
+  </si>
+  <si>
+    <t>Usage of comparator is important here</t>
+  </si>
+  <si>
+    <t>Important Algorithm based on Merge sort algorithm</t>
+  </si>
+  <si>
+    <t>Unique Elements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-pairs/</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>B Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>Usage of comparator to arrange 2D array elements in sorted order</t>
+  </si>
+  <si>
+    <t>Usage of sets and increment of count</t>
+  </si>
 </sst>
 </file>
 
@@ -541,9 +622,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -596,9 +677,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -653,7 +734,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -707,8 +788,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -761,9 +842,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -816,7 +897,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>541020</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -871,9 +952,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>695325</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:colOff>693420</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -926,9 +1007,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
+          <xdr:colOff>617220</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -982,8 +1063,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1036,9 +1117,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1091,9 +1172,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
+          <xdr:colOff>441960</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1146,9 +1227,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:colOff>441960</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1201,7 +1282,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>464820</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1256,9 +1337,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1311,9 +1392,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
+          <xdr:colOff>441960</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1367,8 +1448,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1421,9 +1502,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1476,9 +1557,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>640080</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1532,8 +1613,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1586,9 +1667,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:colOff>388620</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1641,9 +1722,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:colOff>350520</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1690,15 +1771,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>400051</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>187850</xdr:rowOff>
+          <xdr:colOff>403860</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1708,7 +1789,502 @@
                   <a14:compatExt spid="_x0000_s2082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C2FDBC-20B8-4FD2-8A92-52F501359A98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>449580</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2083" name="Object 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2084" name="Object 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>350520</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2086" name="Object 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>563880</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2087" name="Object 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2088" name="Object 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>198120</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2091" name="Object 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2092" name="Object 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2093" name="Object 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>554691</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2099" name="Object 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DABFF2A-7249-4050-89AB-EE747FD2EAE6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1759,92 +2335,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>176456</xdr:rowOff>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>901</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2083" name="Object 35" hidden="1">
+            <xdr:cNvPr id="2100" name="Object 52" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2083"/>
+                  <a14:compatExt spid="_x0000_s2100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44204F63-7968-4697-8397-FF9CAFE4C1A4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>526169</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2084" name="Object 36" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2084"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4D8F12-8CFC-425D-92FF-C3F26934154E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839692E2-85FB-4E58-90BB-1F570407D988}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1895,24 +2403,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>9826</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>94914</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2086" name="Object 38" hidden="1">
+            <xdr:cNvPr id="2101" name="Object 53" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2086"/>
+                  <a14:compatExt spid="_x0000_s2101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB1A38E-93DE-4A94-AE17-82759392034F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A2A3A4-B126-4CFE-B918-F7E0C5C9EF3B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1963,92 +2471,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>559329</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:colOff>312420</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>6804</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2087" name="Object 39" hidden="1">
+            <xdr:cNvPr id="2102" name="Object 54" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2087"/>
+                  <a14:compatExt spid="_x0000_s2102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F6638F-CCB4-4DD4-BCC9-27901E023AA9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>495301</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>177127</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2088" name="Object 40" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2088"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEF80FB-6228-411E-95C8-98C4DF493969}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6557B5B-BECA-4B6E-BCA5-38F0AB1615A6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2099,24 +2539,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>180023</xdr:rowOff>
+          <xdr:colOff>556260</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>171157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2091" name="Object 43" hidden="1">
+            <xdr:cNvPr id="2104" name="Object 56" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2091"/>
+                  <a14:compatExt spid="_x0000_s2104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754D3EF5-56AE-4144-8F5F-E7CFE091E89D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A47F57-193E-4918-9196-8C236865CD48}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2167,24 +2607,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>182166</xdr:rowOff>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>180454</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2092" name="Object 44" hidden="1">
+            <xdr:cNvPr id="2105" name="Object 57" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2092"/>
+                  <a14:compatExt spid="_x0000_s2105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EEE127-3B77-462E-84B5-553F0E7F5C76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72239AC9-600C-4305-A470-639596525BC8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2235,24 +2675,568 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>7804</xdr:rowOff>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>20986</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2093" name="Object 45" hidden="1">
+            <xdr:cNvPr id="2106" name="Object 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2093"/>
+                  <a14:compatExt spid="_x0000_s2106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06899093-56E9-4486-9D83-0A30EBAB1DD8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99367707-ADD5-486A-BC35-B9368808DFFD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>147357</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2107" name="Object 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B99C0C-8815-4907-B8C9-311477600E73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>297180</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>160383</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2108" name="Object 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAB8BC6-B1B3-4C2D-ABFB-21AD824589D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>624840</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>10252</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2109" name="Object 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5803F2-B42F-43DF-9A65-985281E9E1AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>480060</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>25044</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2119" name="Object 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B4D5B9-A7FF-432F-BE05-5F9F9F68B1BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>176395</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2120" name="Object 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97554D4-3EA0-45CD-9C17-5E198507A09C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>195767</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2121" name="Object 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE3BE6C-4987-42E0-A9BC-CCC6011C9C49}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>171901</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2122" name="Object 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18AEF411-DDCB-458C-9021-B24C0E5168D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>541020</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>179460</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2123" name="Object 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DB0256-575F-4ED9-9F95-2C40EEF51456}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2313,7 +3297,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>695325</xdr:colOff>
+          <xdr:colOff>693420</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2370,7 +3354,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2682,7 +3666,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2692,33 +3676,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.5703125" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.5546875" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2777,7 +3761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2816,7 +3800,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2861,7 +3845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2912,7 +3896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2949,7 +3933,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2988,7 +3972,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3025,7 +4009,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3062,7 +4046,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3101,7 +4085,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3138,7 +4122,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3175,7 +4159,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3212,7 +4196,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3235,7 +4219,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3258,7 +4242,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3281,7 +4265,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3304,7 +4288,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3327,7 +4311,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3350,7 +4334,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3373,7 +4357,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3396,7 +4380,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3419,7 +4403,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3444,7 +4428,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3481,7 +4465,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3518,7 +4502,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3555,7 +4539,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3592,7 +4576,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3629,7 +4613,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3666,7 +4650,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3703,7 +4687,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3740,7 +4724,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3775,7 +4759,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3810,7 +4794,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3841,7 +4825,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3872,7 +4856,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3903,7 +4887,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -3928,7 +4912,7 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3963,7 +4947,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4000,7 +4984,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4037,7 +5021,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4072,7 +5056,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4107,7 +5091,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4142,7 +5126,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4177,7 +5161,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4212,7 +5196,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4247,7 +5231,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4282,7 +5266,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -4307,19 +5291,31 @@
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -4330,19 +5326,31 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -4353,19 +5361,29 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1"/>
+      <c r="B50" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -4376,19 +5394,29 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -4399,19 +5427,31 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -4422,19 +5462,31 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -4445,19 +5497,31 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -4468,19 +5532,33 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4491,19 +5569,33 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4514,19 +5606,29 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4537,19 +5639,31 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1"/>
+      <c r="B58" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4560,19 +5674,31 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -4583,19 +5709,31 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1"/>
+      <c r="B60" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -4606,19 +5744,33 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="B61" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -4629,19 +5781,31 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1"/>
+      <c r="B62" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -4652,7 +5816,7 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4675,7 +5839,7 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4698,7 +5862,7 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4721,7 +5885,7 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4744,7 +5908,7 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4767,7 +5931,7 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4790,7 +5954,7 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4813,7 +5977,7 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4836,7 +6000,7 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4859,7 +6023,7 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4882,7 +6046,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4905,7 +6069,7 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4928,7 +6092,7 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4951,7 +6115,7 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4974,7 +6138,7 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4997,7 +6161,7 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5020,7 +6184,7 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5043,7 +6207,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5066,7 +6230,7 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5089,7 +6253,7 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5112,7 +6276,7 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5135,7 +6299,7 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5158,7 +6322,7 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5181,7 +6345,7 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5204,7 +6368,7 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5227,7 +6391,7 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5250,7 +6414,7 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5273,7 +6437,7 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5296,7 +6460,7 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5319,7 +6483,7 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5342,7 +6506,7 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5365,7 +6529,7 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5388,7 +6552,7 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5411,7 +6575,7 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5434,7 +6598,7 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5457,7 +6621,7 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5480,7 +6644,7 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5503,7 +6667,7 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5526,7 +6690,7 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5549,7 +6713,7 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5572,7 +6736,7 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5595,7 +6759,7 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5618,7 +6782,7 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5641,7 +6805,7 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5664,7 +6828,7 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5687,7 +6851,7 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5710,7 +6874,7 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5733,7 +6897,7 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5756,7 +6920,7 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5779,7 +6943,7 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5802,7 +6966,7 @@
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5825,7 +6989,7 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5848,7 +7012,7 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5871,7 +7035,7 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5894,7 +7058,7 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5917,7 +7081,7 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5940,7 +7104,7 @@
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5963,7 +7127,7 @@
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5986,7 +7150,7 @@
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6009,7 +7173,7 @@
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6032,7 +7196,7 @@
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6055,7 +7219,7 @@
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6078,7 +7242,7 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6101,7 +7265,7 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6124,7 +7288,7 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6147,7 +7311,7 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6170,7 +7334,7 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6193,7 +7357,7 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6216,7 +7380,7 @@
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6239,7 +7403,7 @@
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6262,7 +7426,7 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6285,7 +7449,7 @@
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6308,7 +7472,7 @@
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6331,7 +7495,7 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6354,7 +7518,7 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6377,7 +7541,7 @@
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6400,7 +7564,7 @@
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6423,7 +7587,7 @@
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6446,7 +7610,7 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6469,7 +7633,7 @@
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6492,7 +7656,7 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6515,7 +7679,7 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6538,7 +7702,7 @@
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6561,7 +7725,7 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6584,7 +7748,7 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6607,7 +7771,7 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6630,7 +7794,7 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6653,7 +7817,7 @@
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6676,7 +7840,7 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6699,7 +7863,7 @@
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6722,7 +7886,7 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6745,7 +7909,7 @@
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6768,7 +7932,7 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -6791,7 +7955,7 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -6814,7 +7978,7 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -6837,7 +8001,7 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -6860,7 +8024,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -6883,7 +8047,7 @@
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -6906,7 +8070,7 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6929,7 +8093,7 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6952,7 +8116,7 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6975,7 +8139,7 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6998,7 +8162,7 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -7021,7 +8185,7 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -7044,7 +8208,7 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -7067,7 +8231,7 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -7090,7 +8254,7 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -7113,7 +8277,7 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -7136,7 +8300,7 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -7159,7 +8323,7 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -7182,7 +8346,7 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -7205,7 +8369,7 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -7228,7 +8392,7 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -7251,7 +8415,7 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -7274,7 +8438,7 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -7297,7 +8461,7 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -7320,7 +8484,7 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -7343,7 +8507,7 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -7366,7 +8530,7 @@
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -7389,7 +8553,7 @@
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7412,7 +8576,7 @@
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7435,7 +8599,7 @@
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7458,7 +8622,7 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7481,7 +8645,7 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7504,7 +8668,7 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7527,7 +8691,7 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7550,7 +8714,7 @@
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7573,7 +8737,7 @@
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7596,7 +8760,7 @@
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7619,7 +8783,7 @@
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7642,7 +8806,7 @@
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7665,7 +8829,7 @@
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7688,7 +8852,7 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7711,7 +8875,7 @@
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7734,7 +8898,7 @@
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7757,7 +8921,7 @@
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -7780,7 +8944,7 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -7803,7 +8967,7 @@
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -7826,7 +8990,7 @@
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -7849,7 +9013,7 @@
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -7872,7 +9036,7 @@
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -7895,7 +9059,7 @@
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7918,7 +9082,7 @@
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -7941,7 +9105,7 @@
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -7964,7 +9128,7 @@
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -7987,7 +9151,7 @@
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -8010,7 +9174,7 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -8033,7 +9197,7 @@
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -8056,7 +9220,7 @@
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -8079,7 +9243,7 @@
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -8102,7 +9266,7 @@
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -8125,7 +9289,7 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -8148,7 +9312,7 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -8171,7 +9335,7 @@
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -8194,7 +9358,7 @@
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -8217,7 +9381,7 @@
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -8240,7 +9404,7 @@
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -8263,7 +9427,7 @@
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -8286,7 +9450,7 @@
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -8309,7 +9473,7 @@
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -8332,7 +9496,7 @@
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -8355,7 +9519,7 @@
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -8378,7 +9542,7 @@
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -8401,7 +9565,7 @@
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -8424,7 +9588,7 @@
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -8447,7 +9611,7 @@
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8470,7 +9634,7 @@
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -8493,7 +9657,7 @@
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -8516,7 +9680,7 @@
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -8539,7 +9703,7 @@
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -8562,7 +9726,7 @@
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -8585,7 +9749,7 @@
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -8608,7 +9772,7 @@
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -8631,7 +9795,7 @@
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -8654,7 +9818,7 @@
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -8677,7 +9841,7 @@
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -8700,7 +9864,7 @@
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -8723,7 +9887,7 @@
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -8746,7 +9910,7 @@
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -8769,7 +9933,7 @@
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -8792,7 +9956,7 @@
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -8815,7 +9979,7 @@
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -8838,7 +10002,7 @@
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8861,7 +10025,7 @@
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8884,7 +10048,7 @@
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8907,7 +10071,7 @@
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -8930,7 +10094,7 @@
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -8953,7 +10117,7 @@
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -8976,7 +10140,7 @@
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -8999,7 +10163,7 @@
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -9022,7 +10186,7 @@
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -9045,7 +10209,7 @@
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -9068,7 +10232,7 @@
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -9091,7 +10255,7 @@
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -9114,7 +10278,7 @@
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -9137,7 +10301,7 @@
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -9160,7 +10324,7 @@
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -9183,7 +10347,7 @@
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -9206,7 +10370,7 @@
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -9229,7 +10393,7 @@
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -9252,7 +10416,7 @@
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -9275,7 +10439,7 @@
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -9298,7 +10462,7 @@
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -9321,7 +10485,7 @@
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -9344,7 +10508,7 @@
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -9367,7 +10531,7 @@
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -9390,7 +10554,7 @@
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -9413,7 +10577,7 @@
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -9436,7 +10600,7 @@
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -9459,7 +10623,7 @@
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -9482,7 +10646,7 @@
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -9505,7 +10669,7 @@
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -9528,7 +10692,7 @@
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -9551,7 +10715,7 @@
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -9574,7 +10738,7 @@
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -9597,7 +10761,7 @@
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -9620,7 +10784,7 @@
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -9643,7 +10807,7 @@
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -9666,7 +10830,7 @@
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -9689,7 +10853,7 @@
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -9712,7 +10876,7 @@
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -9735,7 +10899,7 @@
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -9758,7 +10922,7 @@
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -9781,7 +10945,7 @@
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -9804,7 +10968,7 @@
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -9827,7 +10991,7 @@
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -9850,7 +11014,7 @@
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -9873,7 +11037,7 @@
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -9896,7 +11060,7 @@
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -9919,7 +11083,7 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -9942,7 +11106,7 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -9965,7 +11129,7 @@
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -9988,7 +11152,7 @@
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -10011,7 +11175,7 @@
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -10034,7 +11198,7 @@
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -10057,7 +11221,7 @@
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -10080,7 +11244,7 @@
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -10103,7 +11267,7 @@
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -10126,7 +11290,7 @@
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -10149,7 +11313,7 @@
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -10172,7 +11336,7 @@
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -10195,7 +11359,7 @@
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -10218,7 +11382,7 @@
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -10241,7 +11405,7 @@
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -10264,7 +11428,7 @@
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -10287,7 +11451,7 @@
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -10310,7 +11474,7 @@
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -10333,7 +11497,7 @@
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -10356,7 +11520,7 @@
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -10379,7 +11543,7 @@
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -10402,7 +11566,7 @@
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -10425,7 +11589,7 @@
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -10448,7 +11612,7 @@
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -10471,7 +11635,7 @@
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -10494,7 +11658,7 @@
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -10517,7 +11681,7 @@
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -10540,7 +11704,7 @@
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -10563,7 +11727,7 @@
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -10586,7 +11750,7 @@
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -10609,7 +11773,7 @@
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -10632,7 +11796,7 @@
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -10655,7 +11819,7 @@
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -10678,7 +11842,7 @@
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -10701,7 +11865,7 @@
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -10724,7 +11888,7 @@
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -10747,7 +11911,7 @@
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -10770,7 +11934,7 @@
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -10793,7 +11957,7 @@
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -10816,7 +11980,7 @@
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -10839,7 +12003,7 @@
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -10862,7 +12026,7 @@
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -10885,7 +12049,7 @@
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -10908,7 +12072,7 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -10931,7 +12095,7 @@
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -10954,7 +12118,7 @@
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -10977,7 +12141,7 @@
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -11000,7 +12164,7 @@
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -11023,7 +12187,7 @@
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -11046,7 +12210,7 @@
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -11069,7 +12233,7 @@
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -11092,7 +12256,7 @@
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -11115,7 +12279,7 @@
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -11138,7 +12302,7 @@
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -11161,7 +12325,7 @@
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -11184,7 +12348,7 @@
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -11207,7 +12371,7 @@
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -11230,7 +12394,7 @@
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -11253,7 +12417,7 @@
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -11276,7 +12440,7 @@
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -11299,7 +12463,7 @@
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -11322,7 +12486,7 @@
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -11345,7 +12509,7 @@
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -11368,7 +12532,7 @@
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -11391,7 +12555,7 @@
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -11414,7 +12578,7 @@
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -11437,7 +12601,7 @@
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -11460,7 +12624,7 @@
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -11483,7 +12647,7 @@
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -11506,7 +12670,7 @@
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -11529,7 +12693,7 @@
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -11552,7 +12716,7 @@
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -11575,7 +12739,7 @@
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -11598,7 +12762,7 @@
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -11621,7 +12785,7 @@
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -11644,7 +12808,7 @@
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -11667,7 +12831,7 @@
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -11690,7 +12854,7 @@
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -11713,7 +12877,7 @@
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -11736,7 +12900,7 @@
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -11759,7 +12923,7 @@
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -11782,7 +12946,7 @@
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -11805,7 +12969,7 @@
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -11828,7 +12992,7 @@
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -11851,7 +13015,7 @@
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -11874,7 +13038,7 @@
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -11897,7 +13061,7 @@
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -11920,7 +13084,7 @@
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -11943,7 +13107,7 @@
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -11966,7 +13130,7 @@
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -11989,7 +13153,7 @@
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -12012,7 +13176,7 @@
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -12035,7 +13199,7 @@
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -12058,7 +13222,7 @@
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -12081,7 +13245,7 @@
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -12104,7 +13268,7 @@
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -12127,7 +13291,7 @@
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -12150,7 +13314,7 @@
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -12173,7 +13337,7 @@
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -12196,7 +13360,7 @@
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -12219,7 +13383,7 @@
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -12242,7 +13406,7 @@
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -12265,7 +13429,7 @@
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -12288,7 +13452,7 @@
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -12311,7 +13475,7 @@
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -12334,7 +13498,7 @@
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -12357,7 +13521,7 @@
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -12380,7 +13544,7 @@
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -12403,7 +13567,7 @@
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -12426,7 +13590,7 @@
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -12449,7 +13613,7 @@
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -12472,7 +13636,7 @@
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -12495,7 +13659,7 @@
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -12518,7 +13682,7 @@
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -12541,7 +13705,7 @@
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -12564,7 +13728,7 @@
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -12587,7 +13751,7 @@
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -12610,7 +13774,7 @@
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -12633,7 +13797,7 @@
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -12656,7 +13820,7 @@
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -12679,7 +13843,7 @@
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -12702,7 +13866,7 @@
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -12725,7 +13889,7 @@
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -12748,7 +13912,7 @@
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -12771,7 +13935,7 @@
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -12794,7 +13958,7 @@
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -12817,7 +13981,7 @@
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -12840,7 +14004,7 @@
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -12863,7 +14027,7 @@
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -12886,7 +14050,7 @@
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -12909,7 +14073,7 @@
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -12932,7 +14096,7 @@
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -12955,7 +14119,7 @@
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -12978,7 +14142,7 @@
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -13001,7 +14165,7 @@
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -13024,7 +14188,7 @@
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -13047,7 +14211,7 @@
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -13070,7 +14234,7 @@
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -13093,7 +14257,7 @@
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -13116,7 +14280,7 @@
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -13139,7 +14303,7 @@
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -13162,7 +14326,7 @@
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -13185,7 +14349,7 @@
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -13208,7 +14372,7 @@
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -13231,7 +14395,7 @@
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -13254,7 +14418,7 @@
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -13277,7 +14441,7 @@
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -13300,7 +14464,7 @@
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -13323,7 +14487,7 @@
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -13346,7 +14510,7 @@
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -13369,7 +14533,7 @@
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -13392,7 +14556,7 @@
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -13415,7 +14579,7 @@
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -13438,7 +14602,7 @@
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -13461,7 +14625,7 @@
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -13484,7 +14648,7 @@
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -13507,7 +14671,7 @@
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -13530,7 +14694,7 @@
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -13553,7 +14717,7 @@
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -13576,7 +14740,7 @@
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -13599,7 +14763,7 @@
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -13622,7 +14786,7 @@
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -13645,7 +14809,7 @@
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -13668,7 +14832,7 @@
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -13691,7 +14855,7 @@
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -13714,7 +14878,7 @@
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -13737,7 +14901,7 @@
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -13760,7 +14924,7 @@
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -13783,7 +14947,7 @@
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -13806,7 +14970,7 @@
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -13829,7 +14993,7 @@
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -13852,7 +15016,7 @@
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -13875,7 +15039,7 @@
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -13898,7 +15062,7 @@
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -13921,7 +15085,7 @@
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -13944,7 +15108,7 @@
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -13967,7 +15131,7 @@
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -13990,7 +15154,7 @@
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -14013,7 +15177,7 @@
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -14036,7 +15200,7 @@
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -14059,7 +15223,7 @@
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -14082,7 +15246,7 @@
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -14105,7 +15269,7 @@
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -14128,7 +15292,7 @@
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -14151,7 +15315,7 @@
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -14174,7 +15338,7 @@
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -14197,7 +15361,7 @@
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -14220,7 +15384,7 @@
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -14243,7 +15407,7 @@
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -14266,7 +15430,7 @@
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -14289,7 +15453,7 @@
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -14312,7 +15476,7 @@
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -14335,7 +15499,7 @@
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -14358,7 +15522,7 @@
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -14381,7 +15545,7 @@
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -14404,7 +15568,7 @@
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -14427,7 +15591,7 @@
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -14450,7 +15614,7 @@
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -14473,7 +15637,7 @@
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -14496,7 +15660,7 @@
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -14519,7 +15683,7 @@
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -14542,7 +15706,7 @@
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -14565,7 +15729,7 @@
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -14588,7 +15752,7 @@
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -14611,7 +15775,7 @@
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -14634,7 +15798,7 @@
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -14657,7 +15821,7 @@
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -14680,7 +15844,7 @@
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -14703,7 +15867,7 @@
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -14726,7 +15890,7 @@
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -14749,7 +15913,7 @@
       <c r="R501" s="1"/>
       <c r="S501" s="1"/>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -14772,7 +15936,7 @@
       <c r="R502" s="1"/>
       <c r="S502" s="1"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -14795,7 +15959,7 @@
       <c r="R503" s="1"/>
       <c r="S503" s="1"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -14818,7 +15982,7 @@
       <c r="R504" s="1"/>
       <c r="S504" s="1"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -14841,7 +16005,7 @@
       <c r="R505" s="1"/>
       <c r="S505" s="1"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -14864,7 +16028,7 @@
       <c r="R506" s="1"/>
       <c r="S506" s="1"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -14887,7 +16051,7 @@
       <c r="R507" s="1"/>
       <c r="S507" s="1"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -14910,7 +16074,7 @@
       <c r="R508" s="1"/>
       <c r="S508" s="1"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -14933,7 +16097,7 @@
       <c r="R509" s="1"/>
       <c r="S509" s="1"/>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -14956,7 +16120,7 @@
       <c r="R510" s="1"/>
       <c r="S510" s="1"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -14979,7 +16143,7 @@
       <c r="R511" s="1"/>
       <c r="S511" s="1"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -15002,7 +16166,7 @@
       <c r="R512" s="1"/>
       <c r="S512" s="1"/>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -15025,7 +16189,7 @@
       <c r="R513" s="1"/>
       <c r="S513" s="1"/>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -15048,7 +16212,7 @@
       <c r="R514" s="1"/>
       <c r="S514" s="1"/>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -15071,7 +16235,7 @@
       <c r="R515" s="1"/>
       <c r="S515" s="1"/>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -15094,7 +16258,7 @@
       <c r="R516" s="1"/>
       <c r="S516" s="1"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -15162,16 +16326,26 @@
     <hyperlink ref="B43" r:id="rId32" xr:uid="{7E2D3B29-AE79-46ED-A76E-237FB99B28E7}"/>
     <hyperlink ref="B44" r:id="rId33" xr:uid="{5B849E56-CFDB-470B-8519-C3909FCE3DCD}"/>
     <hyperlink ref="B45" r:id="rId34" xr:uid="{3294574F-F283-4F43-B97F-11504D1AFF38}"/>
+    <hyperlink ref="B48" r:id="rId35" xr:uid="{9E63E383-26EE-43A0-A444-4225135DC163}"/>
+    <hyperlink ref="B49" r:id="rId36" xr:uid="{2F567F30-D91D-4B7E-B798-C352A69A3523}"/>
+    <hyperlink ref="B50" r:id="rId37" xr:uid="{7000B02F-2B24-4F35-A945-BD1A0EF0E49E}"/>
+    <hyperlink ref="B51" r:id="rId38" xr:uid="{366CBAFB-0E13-4FB2-A92A-2FBC19B89381}"/>
+    <hyperlink ref="B58" r:id="rId39" xr:uid="{8E81715F-5DD5-417E-94F3-A46588883380}"/>
+    <hyperlink ref="B59" r:id="rId40" xr:uid="{D2A94E63-62F2-4324-A74A-C711A4CF3841}"/>
+    <hyperlink ref="B62" r:id="rId41" xr:uid="{67C880B7-B36C-4CA7-8879-2F6191B336D3}"/>
+    <hyperlink ref="B61" r:id="rId42" xr:uid="{2A7B61F4-5927-4932-91B6-8E2D2141BB0A}"/>
+    <hyperlink ref="B60" r:id="rId43" xr:uid="{EFDD7B76-A14F-44C6-8D18-C1AD631593DA}"/>
+    <hyperlink ref="B57" r:id="rId44" xr:uid="{D9A93759-E682-4FB4-B1CB-AE372A2360D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
-  <drawing r:id="rId36"/>
-  <legacyDrawing r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
+  <drawing r:id="rId46"/>
+  <legacyDrawing r:id="rId47"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId38">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId39">
+        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId48">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15181,22 +16355,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
+                <xdr:colOff>563880</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId38"/>
+        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId40">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId41">
+        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId50">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15206,22 +16380,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:colOff>678180</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>160020</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId40"/>
+        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId42">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
+        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId52">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15233,20 +16407,20 @@
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId42"/>
+        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId44">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
+        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId54">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15258,20 +16432,20 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId44"/>
+        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId46">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
+        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId56">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15281,22 +16455,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
+                <xdr:colOff>525780</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId46"/>
+        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId48">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
+        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15306,7 +16480,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:colOff>541020</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -15315,13 +16489,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId48"/>
+        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId50">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
+        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId60">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15331,22 +16505,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:colOff>693420</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId50"/>
+        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId52">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
+        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId62">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15356,22 +16530,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:colOff>617220</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId52"/>
+        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId54">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
+        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId64">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15383,20 +16557,20 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId54"/>
+        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId56">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
+        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId66">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15406,22 +16580,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:colOff>198120</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId56"/>
+        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId58">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
+        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId68">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15431,22 +16605,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
+                <xdr:colOff>441960</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>160020</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId58"/>
+        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId60">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
+        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId70">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15456,22 +16630,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
+                <xdr:colOff>441960</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId60"/>
+        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId62">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
+        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId72">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15481,7 +16655,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>464820</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -15490,13 +16664,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId62"/>
+        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId64">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
+        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId74">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15506,22 +16680,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
+                <xdr:colOff>365760</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId64"/>
+        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId66">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
+        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15531,22 +16705,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
+                <xdr:colOff>441960</xdr:colOff>
                 <xdr:row>25</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId66"/>
+        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId68">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
+        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId78">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15558,20 +16732,20 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId68"/>
+        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId78"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId70">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
+        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId80">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15581,22 +16755,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId70"/>
+        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId80"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId72">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
+        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId82">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15606,22 +16780,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:colOff>640080</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId72"/>
+        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId82"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId74">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
+        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId84">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15633,20 +16807,20 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>29</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId74"/>
+        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId84"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId76">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
+        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId86">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15656,22 +16830,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:colOff>388620</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId76"/>
+        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId86"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId78">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
+        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId88">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15681,22 +16855,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
+                <xdr:colOff>350520</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId78"/>
+        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId88"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId80">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
+        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId90">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15706,7 +16880,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
+                <xdr:colOff>403860</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -15715,13 +16889,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId80"/>
+        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId90"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId82">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
+        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId92">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15731,22 +16905,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:colOff>449580</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId82"/>
+        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId92"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId84">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
+        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId94">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15756,22 +16930,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
+                <xdr:colOff>525780</xdr:colOff>
                 <xdr:row>38</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId84"/>
+        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId94"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId86">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId96">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15781,22 +16955,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
+                <xdr:colOff>350520</xdr:colOff>
                 <xdr:row>40</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId86"/>
+        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId96"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId88">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
+        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId98">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15806,22 +16980,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
+                <xdr:colOff>563880</xdr:colOff>
                 <xdr:row>41</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId88"/>
+        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId98"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId90">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
+        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId100">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15833,20 +17007,20 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>41</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId90"/>
+        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId100"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId92">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
+        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId102">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15856,22 +17030,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:colOff>198120</xdr:colOff>
                 <xdr:row>42</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId92"/>
+        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId102"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId94">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
+        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId104">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15881,22 +17055,22 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
+                <xdr:colOff>327660</xdr:colOff>
                 <xdr:row>43</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId94"/>
+        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId104"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId96">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
+        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId106">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -15908,14 +17082,389 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>45</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId96"/>
+        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId106"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2099" r:id="rId108">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>556260</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2099" r:id="rId108"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2100" r:id="rId110">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2100" r:id="rId110"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2101" r:id="rId112">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>91440</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2101" r:id="rId112"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2102" r:id="rId114">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>312420</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2102" r:id="rId114"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2104" r:id="rId116">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>556260</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2104" r:id="rId116"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2105" r:id="rId118">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2105" r:id="rId118"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2106" r:id="rId120">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2106" r:id="rId120"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2107" r:id="rId122">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>144780</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2107" r:id="rId122"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2108" r:id="rId124">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>297180</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>160020</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2108" r:id="rId124"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2109" r:id="rId126">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>624840</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2109" r:id="rId126"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2119" r:id="rId128">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>480060</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2119" r:id="rId128"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2120" r:id="rId130">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>487680</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2120" r:id="rId130"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2121" r:id="rId132">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>198120</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2121" r:id="rId132"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2122" r:id="rId134">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2122" r:id="rId134"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2123" r:id="rId136">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>541020</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2123" r:id="rId136"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -15930,20 +17479,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15993,7 +17542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -16029,7 +17578,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -16065,7 +17614,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -16089,7 +17638,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -16113,7 +17662,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -16137,7 +17686,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -16161,7 +17710,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -16180,7 +17729,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -16200,7 +17749,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -16220,7 +17769,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -16240,7 +17789,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -16260,7 +17809,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -16280,7 +17829,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -16300,7 +17849,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -16320,7 +17869,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -16340,7 +17889,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -16360,17 +17909,17 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -16403,7 +17952,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:colOff>693420</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -16430,7 +17979,7 @@
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/DSA Problems.xlsx
+++ b/DSA Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Scaler\scaler-oct21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653AD94C-2735-4C95-B825-25C8625A85A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D0369C-F3D5-4DEE-AD96-BEEE1E62154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="166">
   <si>
     <t>S.No.</t>
   </si>
@@ -489,6 +489,45 @@
   </si>
   <si>
     <t>Usage of sets and increment of count</t>
+  </si>
+  <si>
+    <t>Sum the difference</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>Maximum Unsorted Subarray</t>
+  </si>
+  <si>
+    <t>Maximum and Minimum Magic</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Sorted Array Insertion Position</t>
+  </si>
+  <si>
+    <t>Search For Range (Count Frequency in Sorted Array)</t>
+  </si>
+  <si>
+    <t>Floor Calculate (Greatest element &lt;= K)</t>
+  </si>
+  <si>
+    <t>Ceil Calculate (Smallest element &gt;= K)</t>
+  </si>
+  <si>
+    <t>Find a Peak Element (Local Maxima)</t>
+  </si>
+  <si>
+    <t>Local Minima</t>
+  </si>
+  <si>
+    <t>Single Element (In Sorted Array)</t>
+  </si>
+  <si>
+    <t>Matrix Search</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2311,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>554691</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
@@ -2284,7 +2323,832 @@
                   <a14:compatExt spid="_x0000_s2099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DABFF2A-7249-4050-89AB-EE747FD2EAE6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2100" name="Object 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2101" name="Object 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>312420</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2102" name="Object 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>556260</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2104" name="Object 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2105" name="Object 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2106" name="Object 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>144780</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2107" name="Object 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>297180</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2108" name="Object 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>624840</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2109" name="Object 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>480060</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2119" name="Object 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2120" name="Object 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>198120</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2121" name="Object 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2122" name="Object 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>541020</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2123" name="Object 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>500456</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>167641</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2128" name="Object 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2128"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770BA239-3425-4E4D-950B-1B18FE19B962}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2335,24 +3199,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>548640</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>901</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>175708</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2100" name="Object 52" hidden="1">
+            <xdr:cNvPr id="2129" name="Object 81" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2100"/>
+                  <a14:compatExt spid="_x0000_s2129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839692E2-85FB-4E58-90BB-1F570407D988}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61838632-7845-47C8-8712-196F6985FE7B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2403,24 +3267,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>94914</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>364864</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2101" name="Object 53" hidden="1">
+            <xdr:cNvPr id="2130" name="Object 82" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2101"/>
+                  <a14:compatExt spid="_x0000_s2130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A2A3A4-B126-4CFE-B918-F7E0C5C9EF3B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C954D24E-1F36-4A86-93C8-B00FA9FFC31B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2471,24 +3335,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>6804</xdr:rowOff>
+          <xdr:colOff>388620</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>182249</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2102" name="Object 54" hidden="1">
+            <xdr:cNvPr id="2131" name="Object 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2102"/>
+                  <a14:compatExt spid="_x0000_s2131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6557B5B-BECA-4B6E-BCA5-38F0AB1615A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446E4352-C7A5-4839-8127-0FE509656EEE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2539,24 +3403,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>71</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>556260</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>171157</xdr:rowOff>
+          <xdr:colOff>409015</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2104" name="Object 56" hidden="1">
+            <xdr:cNvPr id="2132" name="Object 84" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2104"/>
+                  <a14:compatExt spid="_x0000_s2132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A47F57-193E-4918-9196-8C236865CD48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9393BA58-190A-4069-B603-DC0994640646}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2607,24 +3471,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
+          <xdr:row>72</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>180454</xdr:rowOff>
+          <xdr:colOff>449580</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>11843</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2105" name="Object 57" hidden="1">
+            <xdr:cNvPr id="2133" name="Object 85" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2105"/>
+                  <a14:compatExt spid="_x0000_s2133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72239AC9-600C-4305-A470-639596525BC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424D097F-B5F4-4916-9D1C-37F9A0AEF70D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2675,24 +3539,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>73</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>548640</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>20986</xdr:rowOff>
+          <xdr:colOff>406213</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2106" name="Object 58" hidden="1">
+            <xdr:cNvPr id="2134" name="Object 86" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2106"/>
+                  <a14:compatExt spid="_x0000_s2134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99367707-ADD5-486A-BC35-B9368808DFFD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64A143F-E631-4E18-BB33-988B35289E0E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2743,500 +3607,24 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>147357</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2107" name="Object 59" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2107"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B99C0C-8815-4907-B8C9-311477600E73}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>55</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>160383</xdr:rowOff>
+          <xdr:colOff>701040</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>3334</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2108" name="Object 60" hidden="1">
+            <xdr:cNvPr id="2135" name="Object 87" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2108"/>
+                  <a14:compatExt spid="_x0000_s2135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAB8BC6-B1B3-4C2D-ABFB-21AD824589D3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>624840</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>10252</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2109" name="Object 61" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2109"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5803F2-B42F-43DF-9A65-985281E9E1AC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>480060</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>25044</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2119" name="Object 71" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2119"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B4D5B9-A7FF-432F-BE05-5F9F9F68B1BA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>487680</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>176395</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2120" name="Object 72" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2120"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97554D4-3EA0-45CD-9C17-5E198507A09C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>195767</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2121" name="Object 73" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2121"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE3BE6C-4987-42E0-A9BC-CCC6011C9C49}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>171901</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2122" name="Object 74" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2122"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18AEF411-DDCB-458C-9021-B24C0E5168D2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>541020</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>179460</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2123" name="Object 75" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2123"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DB0256-575F-4ED9-9F95-2C40EEF51456}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4A1A96-BA53-47E6-A34D-9C5E70BE1085}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3676,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5820,15 +6208,21 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1"/>
+      <c r="B63" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -5843,15 +6237,21 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1"/>
+      <c r="B64" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -5866,15 +6266,23 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1"/>
+      <c r="B65" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -5889,15 +6297,23 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1"/>
+      <c r="B66" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -5908,42 +6324,52 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="67" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
+      <c r="B67" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1"/>
+      <c r="B68" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -5958,15 +6384,23 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1"/>
+      <c r="B69" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -5981,15 +6415,23 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1"/>
+      <c r="B70" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -6004,15 +6446,23 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -6027,15 +6477,23 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -6050,15 +6508,23 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -6073,15 +6539,23 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -6096,15 +6570,23 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1"/>
+      <c r="B75" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -6119,15 +6601,23 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1"/>
+      <c r="B76" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -6150,7 +6640,9 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -16284,7 +16776,7 @@
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{9D6440E9-8E1E-43AC-B858-E4572FF2CA51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J66 J68:J1048576" xr:uid="{9D6440E9-8E1E-43AC-B858-E4572FF2CA51}">
       <formula1>"Scaler-A,Scaler-I,Leetcode,GFG"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{BF20C4B6-E8A1-4D23-A148-D05D51CB2238}">
@@ -16336,16 +16828,25 @@
     <hyperlink ref="B61" r:id="rId42" xr:uid="{2A7B61F4-5927-4932-91B6-8E2D2141BB0A}"/>
     <hyperlink ref="B60" r:id="rId43" xr:uid="{EFDD7B76-A14F-44C6-8D18-C1AD631593DA}"/>
     <hyperlink ref="B57" r:id="rId44" xr:uid="{D9A93759-E682-4FB4-B1CB-AE372A2360D1}"/>
+    <hyperlink ref="B66" r:id="rId45" xr:uid="{4FA4C7EE-27DD-4DDB-AD83-51320B3A1C00}"/>
+    <hyperlink ref="B65" r:id="rId46" xr:uid="{02DB27FC-F420-4533-8761-2E5EC3E01E5B}"/>
+    <hyperlink ref="B64" r:id="rId47" xr:uid="{553B31AF-1E9F-44F9-A5A7-29531D33DC23}"/>
+    <hyperlink ref="B63" r:id="rId48" xr:uid="{F549B0B0-A722-476E-97AE-BE49AAFE9CAB}"/>
+    <hyperlink ref="B68" r:id="rId49" xr:uid="{86DD804E-9B05-47CF-8105-1FA442E4DE70}"/>
+    <hyperlink ref="B69" r:id="rId50" xr:uid="{B1AB2FBA-B312-4B4C-9BA3-9CC5EEE28C28}"/>
+    <hyperlink ref="B70" r:id="rId51" xr:uid="{94F0704A-9350-4C36-92B9-E5BD93A5EBA2}"/>
+    <hyperlink ref="B75" r:id="rId52" xr:uid="{852A4C53-9195-4428-ABAF-5D0A73E99ECF}"/>
+    <hyperlink ref="B76" r:id="rId53" xr:uid="{388BD0C9-2ADE-4ED6-A33A-6A603C9A678F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId45"/>
-  <drawing r:id="rId46"/>
-  <legacyDrawing r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
+  <drawing r:id="rId55"/>
+  <legacyDrawing r:id="rId56"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId48">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
+        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId57">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16364,13 +16865,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId48"/>
+        <oleObject progId="Packager Shell Object" shapeId="2049" r:id="rId57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId50">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
+        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId59">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16389,13 +16890,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId50"/>
+        <oleObject progId="Packager Shell Object" shapeId="2052" r:id="rId59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId52">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
+        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId61">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16414,13 +16915,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId52"/>
+        <oleObject progId="Packager Shell Object" shapeId="2053" r:id="rId61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId54">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
+        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId63">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16439,13 +16940,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId54"/>
+        <oleObject progId="Packager Shell Object" shapeId="2054" r:id="rId63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId56">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
+        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId65">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16464,13 +16965,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId56"/>
+        <oleObject progId="Packager Shell Object" shapeId="2055" r:id="rId65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId58">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
+        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId67">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16489,13 +16990,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId58"/>
+        <oleObject progId="Packager Shell Object" shapeId="2056" r:id="rId67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId60">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
+        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId69">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId70">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16514,13 +17015,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId60"/>
+        <oleObject progId="Packager Shell Object" shapeId="2057" r:id="rId69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId62">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
+        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId71">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId72">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16539,13 +17040,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId62"/>
+        <oleObject progId="Packager Shell Object" shapeId="2058" r:id="rId71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId64">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
+        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId73">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId74">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16564,13 +17065,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId64"/>
+        <oleObject progId="Packager Shell Object" shapeId="2059" r:id="rId73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId66">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
+        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId75">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId76">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16589,13 +17090,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId66"/>
+        <oleObject progId="Packager Shell Object" shapeId="2060" r:id="rId75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId68">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
+        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId77">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16614,13 +17115,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId68"/>
+        <oleObject progId="Packager Shell Object" shapeId="2061" r:id="rId77"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId70">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
+        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId79">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId80">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16639,13 +17140,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId70"/>
+        <oleObject progId="Packager Shell Object" shapeId="2062" r:id="rId79"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId72">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
+        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId81">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16664,13 +17165,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId72"/>
+        <oleObject progId="Packager Shell Object" shapeId="2063" r:id="rId81"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId74">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
+        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId83">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId84">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16689,13 +17190,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId74"/>
+        <oleObject progId="Packager Shell Object" shapeId="2064" r:id="rId83"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId76">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
+        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId85">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId86">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16714,13 +17215,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId76"/>
+        <oleObject progId="Packager Shell Object" shapeId="2065" r:id="rId85"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId78">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
+        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId87">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId88">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16739,13 +17240,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId78"/>
+        <oleObject progId="Packager Shell Object" shapeId="2066" r:id="rId87"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId80">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
+        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId89">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId90">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16764,13 +17265,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId80"/>
+        <oleObject progId="Packager Shell Object" shapeId="2067" r:id="rId89"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId82">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
+        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId91">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId92">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16789,13 +17290,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId82"/>
+        <oleObject progId="Packager Shell Object" shapeId="2068" r:id="rId91"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId84">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
+        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId93">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId94">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16814,13 +17315,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId84"/>
+        <oleObject progId="Packager Shell Object" shapeId="2072" r:id="rId93"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId86">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId95">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId96">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16839,13 +17340,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId86"/>
+        <oleObject progId="Packager Shell Object" shapeId="2073" r:id="rId95"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId88">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
+        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId97">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId98">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16864,13 +17365,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId88"/>
+        <oleObject progId="Packager Shell Object" shapeId="2076" r:id="rId97"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId90">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
+        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId99">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId100">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16889,13 +17390,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId90"/>
+        <oleObject progId="Packager Shell Object" shapeId="2082" r:id="rId99"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId92">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
+        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId101">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId102">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16914,13 +17415,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId92"/>
+        <oleObject progId="Packager Shell Object" shapeId="2083" r:id="rId101"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId94">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
+        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId103">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId104">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16939,13 +17440,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId94"/>
+        <oleObject progId="Packager Shell Object" shapeId="2084" r:id="rId103"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId96">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
+        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId105">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId106">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16964,13 +17465,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId96"/>
+        <oleObject progId="Packager Shell Object" shapeId="2086" r:id="rId105"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId98">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
+        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId107">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId108">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -16989,13 +17490,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId98"/>
+        <oleObject progId="Packager Shell Object" shapeId="2087" r:id="rId107"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId100">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
+        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId109">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId110">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17014,13 +17515,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId100"/>
+        <oleObject progId="Packager Shell Object" shapeId="2088" r:id="rId109"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId102">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
+        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId111">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId112">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17039,13 +17540,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId102"/>
+        <oleObject progId="Packager Shell Object" shapeId="2091" r:id="rId111"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId104">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
+        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId113">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId114">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17064,13 +17565,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId104"/>
+        <oleObject progId="Packager Shell Object" shapeId="2092" r:id="rId113"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId106">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
+        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId115">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId116">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17089,13 +17590,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId106"/>
+        <oleObject progId="Packager Shell Object" shapeId="2093" r:id="rId115"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2099" r:id="rId108">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
+        <oleObject progId="Packager Shell Object" shapeId="2099" r:id="rId117">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId118">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17114,13 +17615,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2099" r:id="rId108"/>
+        <oleObject progId="Packager Shell Object" shapeId="2099" r:id="rId117"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2100" r:id="rId110">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
+        <oleObject progId="Packager Shell Object" shapeId="2100" r:id="rId119">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId120">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17139,13 +17640,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2100" r:id="rId110"/>
+        <oleObject progId="Packager Shell Object" shapeId="2100" r:id="rId119"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2101" r:id="rId112">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
+        <oleObject progId="Packager Shell Object" shapeId="2101" r:id="rId121">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId122">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17164,13 +17665,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2101" r:id="rId112"/>
+        <oleObject progId="Packager Shell Object" shapeId="2101" r:id="rId121"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2102" r:id="rId114">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
+        <oleObject progId="Packager Shell Object" shapeId="2102" r:id="rId123">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId124">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17189,13 +17690,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2102" r:id="rId114"/>
+        <oleObject progId="Packager Shell Object" shapeId="2102" r:id="rId123"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2104" r:id="rId116">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
+        <oleObject progId="Packager Shell Object" shapeId="2104" r:id="rId125">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId126">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17214,13 +17715,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2104" r:id="rId116"/>
+        <oleObject progId="Packager Shell Object" shapeId="2104" r:id="rId125"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2105" r:id="rId118">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
+        <oleObject progId="Packager Shell Object" shapeId="2105" r:id="rId127">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId128">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17239,13 +17740,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2105" r:id="rId118"/>
+        <oleObject progId="Packager Shell Object" shapeId="2105" r:id="rId127"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2106" r:id="rId120">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
+        <oleObject progId="Packager Shell Object" shapeId="2106" r:id="rId129">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId130">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17264,13 +17765,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2106" r:id="rId120"/>
+        <oleObject progId="Packager Shell Object" shapeId="2106" r:id="rId129"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2107" r:id="rId122">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
+        <oleObject progId="Packager Shell Object" shapeId="2107" r:id="rId131">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId132">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17289,13 +17790,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2107" r:id="rId122"/>
+        <oleObject progId="Packager Shell Object" shapeId="2107" r:id="rId131"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2108" r:id="rId124">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
+        <oleObject progId="Packager Shell Object" shapeId="2108" r:id="rId133">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId134">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17314,13 +17815,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2108" r:id="rId124"/>
+        <oleObject progId="Packager Shell Object" shapeId="2108" r:id="rId133"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2109" r:id="rId126">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
+        <oleObject progId="Packager Shell Object" shapeId="2109" r:id="rId135">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId136">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17339,13 +17840,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2109" r:id="rId126"/>
+        <oleObject progId="Packager Shell Object" shapeId="2109" r:id="rId135"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2119" r:id="rId128">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
+        <oleObject progId="Packager Shell Object" shapeId="2119" r:id="rId137">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId138">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17364,13 +17865,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2119" r:id="rId128"/>
+        <oleObject progId="Packager Shell Object" shapeId="2119" r:id="rId137"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2120" r:id="rId130">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
+        <oleObject progId="Packager Shell Object" shapeId="2120" r:id="rId139">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId140">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17389,13 +17890,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2120" r:id="rId130"/>
+        <oleObject progId="Packager Shell Object" shapeId="2120" r:id="rId139"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2121" r:id="rId132">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
+        <oleObject progId="Packager Shell Object" shapeId="2121" r:id="rId141">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId142">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17414,13 +17915,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2121" r:id="rId132"/>
+        <oleObject progId="Packager Shell Object" shapeId="2121" r:id="rId141"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2122" r:id="rId134">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
+        <oleObject progId="Packager Shell Object" shapeId="2122" r:id="rId143">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId144">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17439,13 +17940,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2122" r:id="rId134"/>
+        <oleObject progId="Packager Shell Object" shapeId="2122" r:id="rId143"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2123" r:id="rId136">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
+        <oleObject progId="Packager Shell Object" shapeId="2123" r:id="rId145">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId146">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -17464,7 +17965,207 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2123" r:id="rId136"/>
+        <oleObject progId="Packager Shell Object" shapeId="2123" r:id="rId145"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2128" r:id="rId147">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId148">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>502920</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2128" r:id="rId147"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2129" r:id="rId149">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId150">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>175260</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2129" r:id="rId149"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2130" r:id="rId151">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId152">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>365760</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2130" r:id="rId151"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2131" r:id="rId153">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId154">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>388620</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2131" r:id="rId153"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2132" r:id="rId155">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId156">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>411480</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2132" r:id="rId155"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2133" r:id="rId157">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId158">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>449580</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2133" r:id="rId157"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2134" r:id="rId159">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId160">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>403860</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2134" r:id="rId159"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2135" r:id="rId161">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId162">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>701040</xdr:colOff>
+                <xdr:row>75</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2135" r:id="rId161"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/DSA Problems.xlsx
+++ b/DSA Problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Scaler\scaler-oct21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D0369C-F3D5-4DEE-AD96-BEEE1E62154C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC48449-C379-4DD0-B65E-FCF0DB22B30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="166">
   <si>
     <t>S.No.</t>
   </si>
@@ -827,8 +827,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -882,8 +882,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>525780</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -937,8 +937,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -992,8 +992,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>693420</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1102,8 +1102,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1267,8 +1267,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>441960</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1322,8 +1322,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>464820</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1487,8 +1487,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1542,8 +1542,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>411480</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1652,8 +1652,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1707,8 +1707,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>388620</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1762,8 +1762,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>350520</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1817,8 +1817,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>403860</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1872,8 +1872,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>449580</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1927,8 +1927,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>525780</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2092,8 +2092,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2147,8 +2147,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2202,8 +2202,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>327660</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2587,8 +2587,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3082,8 +3082,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3132,13 +3132,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>500456</xdr:colOff>
+          <xdr:colOff>502920</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>167641</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3148,7 +3148,7 @@
                   <a14:compatExt spid="_x0000_s2128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770BA239-3425-4E4D-950B-1B18FE19B962}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3169,23 +3169,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3204,7 +3191,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>175708</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
@@ -3216,7 +3203,7 @@
                   <a14:compatExt spid="_x0000_s2129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61838632-7845-47C8-8712-196F6985FE7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3237,23 +3224,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3272,7 +3246,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>364864</xdr:colOff>
+          <xdr:colOff>365760</xdr:colOff>
           <xdr:row>69</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
@@ -3284,7 +3258,7 @@
                   <a14:compatExt spid="_x0000_s2130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C954D24E-1F36-4A86-93C8-B00FA9FFC31B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3305,23 +3279,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3342,7 +3303,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>388620</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>182249</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3352,7 +3313,7 @@
                   <a14:compatExt spid="_x0000_s2131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446E4352-C7A5-4839-8127-0FE509656EEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3373,23 +3334,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3408,7 +3356,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>409015</xdr:colOff>
+          <xdr:colOff>411480</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
@@ -3420,7 +3368,7 @@
                   <a14:compatExt spid="_x0000_s2132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9393BA58-190A-4069-B603-DC0994640646}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3441,23 +3389,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3478,7 +3413,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>449580</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>11843</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3488,7 +3423,7 @@
                   <a14:compatExt spid="_x0000_s2133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424D097F-B5F4-4916-9D1C-37F9A0AEF70D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3509,23 +3444,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3544,7 +3466,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>406213</xdr:colOff>
+          <xdr:colOff>403860</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
@@ -3556,7 +3478,7 @@
                   <a14:compatExt spid="_x0000_s2134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64A143F-E631-4E18-BB33-988B35289E0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3577,23 +3499,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3614,7 +3523,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>701040</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>3334</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3624,7 +3533,62 @@
                   <a14:compatExt spid="_x0000_s2135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4A1A96-BA53-47E6-A34D-9C5E70BE1085}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>392654</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2136" name="Object 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2136"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C1E4D1-4C19-4C3E-8364-FD7DC9EFB49B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4064,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6434,7 +6398,9 @@
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
+      <c r="M70" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -6558,7 +6524,9 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
+      <c r="M74" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -18168,6 +18136,31 @@
         <oleObject progId="Packager Shell Object" shapeId="2135" r:id="rId161"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" shapeId="2136" r:id="rId163">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId164">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>75</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>396240</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" shapeId="2136" r:id="rId163"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
